--- a/public/excel/format_pbj/template_awal.xlsx
+++ b/public/excel/format_pbj/template_awal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D418A6B-3316-4D43-9685-8795C8B04804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C0E86-0E45-479D-BFD2-6CC6262346DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{ACD5762A-0F6D-4ACC-B2CA-071D22F6E1CD}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>no_hp</t>
   </si>
   <si>
-    <t>tempat,tanggal_lahir</t>
-  </si>
-  <si>
     <t>pendidikan_terakhir</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>instansi_perusahaan</t>
+  </si>
+  <si>
+    <t>tempat_tanggal_lahir</t>
   </si>
 </sst>
 </file>
@@ -454,13 +454,12 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -481,70 +480,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/format_pbj/template_awal.xlsx
+++ b/public/excel/format_pbj/template_awal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9C0E86-0E45-479D-BFD2-6CC6262346DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57B8D3-288F-4FCF-92B9-E6A70070B123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{ACD5762A-0F6D-4ACC-B2CA-071D22F6E1CD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>email</t>
   </si>
@@ -100,13 +100,76 @@
   </si>
   <si>
     <t>tempat_tanggal_lahir</t>
+  </si>
+  <si>
+    <t>adimoo22@gmail.com</t>
+  </si>
+  <si>
+    <t>Adi Purnomo, SE, QIA</t>
+  </si>
+  <si>
+    <t>Adi Purnomo</t>
+  </si>
+  <si>
+    <t>085718865509</t>
+  </si>
+  <si>
+    <t>Jakarta, 22 September 1992</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Perum Percetakan Uang Republik Indonesia</t>
+  </si>
+  <si>
+    <t>Kabupaten Karawang, Jawa Barat</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3175102209920001</t>
+  </si>
+  <si>
+    <t>BUMN/BUMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Parung Mulya, Ciampel, Karawang, Jawa Barat </t>
+  </si>
+  <si>
+    <t>Satuan Pengawasan Intern</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Fungsional Umum</t>
+  </si>
+  <si>
+    <t>Auditor Pertama</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Pelatihan dengan penginapan single (1 kamar sendiri)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EGArmSNdF5uqdl68e8lCwhvT3PWCydL0</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19tBwXVsGCo3e2_4ky_FSLDg643_JEspg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1C0IV_ZeFHbMwZ4ZmkgaSgyXqYKrsjjPI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,16 +177,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,12 +214,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266ACF3-FF99-4561-8CB7-1C256C009A54}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +656,83 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:23" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1">
+        <v>41361</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{26E9DA68-DC01-46E6-BB8D-A87795CDA1EB}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{7922DABC-E7EF-48DB-A49F-222BB6E38ADD}"/>
+    <hyperlink ref="W2" r:id="rId3" xr:uid="{9BA84B00-5B9C-4F48-807E-54607B2D9469}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>